--- a/myeloid_assignments.xlsx
+++ b/myeloid_assignments.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nick/Documents/GitHub/ccRCC/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5CE87364-9CD1-374C-AD35-8D6FDBC75F66}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A87A559-AAA1-4744-A721-A979DD32884B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23920" yWindow="620" windowWidth="27640" windowHeight="16540" xr2:uid="{BC0D4A4D-F37C-E54E-A48E-0CF8A04AFBF5}"/>
+    <workbookView xWindow="12800" yWindow="1660" windowWidth="28800" windowHeight="17540" xr2:uid="{BC0D4A4D-F37C-E54E-A48E-0CF8A04AFBF5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="15">
   <si>
     <t>Cluster</t>
   </si>
@@ -56,9 +56,6 @@
     <t>Macrophage</t>
   </si>
   <si>
-    <t>CD207+ Macrophage</t>
-  </si>
-  <si>
     <t>Monocyte</t>
   </si>
   <si>
@@ -69,6 +66,18 @@
   </si>
   <si>
     <t>moDC</t>
+  </si>
+  <si>
+    <t>TAM</t>
+  </si>
+  <si>
+    <t>Resident Macrophage</t>
+  </si>
+  <si>
+    <t>Macrophage Specific</t>
+  </si>
+  <si>
+    <t>nonTAM</t>
   </si>
 </sst>
 </file>
@@ -420,15 +429,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDA49D3D-F909-054E-873A-8ED4A7D7C273}">
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="104" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5:C5"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="104" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -438,152 +447,179 @@
       <c r="C1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+      <c r="D5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>4</v>
       </c>
       <c r="B6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" t="s">
         <v>8</v>
       </c>
-      <c r="C6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>7</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C11" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>10</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>11</v>
       </c>
-      <c r="B13" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>12</v>
       </c>
-      <c r="B14" t="s">
-        <v>5</v>
-      </c>
-      <c r="C14" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C15" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+      <c r="D15" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C16" t="s">
-        <v>9</v>
+        <v>6</v>
+      </c>
+      <c r="D16" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
@@ -594,7 +630,7 @@
         <v>5</v>
       </c>
       <c r="C17" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
@@ -605,7 +641,34 @@
         <v>5</v>
       </c>
       <c r="C18" t="s">
-        <v>11</v>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>5</v>
+      </c>
+      <c r="C21" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
